--- a/Co-ordinates.xlsx
+++ b/Co-ordinates.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Location</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Bihar</t>
   </si>
   <si>
-    <t>Ch</t>
-  </si>
-  <si>
     <t>'&lt;b&gt;Name 1&lt;/b&gt;&lt;br&gt;Address Line 1&lt;br&gt;Bismarck, ND 58501&lt;br&gt;Phone: 701-555-1234&lt;br&gt;&lt;a href="#" &gt;Link&lt;a&gt; of some sort.', 46.8133, -100.7790, 4],</t>
   </si>
   <si>
@@ -64,6 +61,42 @@
   </si>
   <si>
     <t>['&lt;b&gt;Name 3&lt;/b&gt;&lt;br&gt;Address Line 1&lt;br&gt;Bismarck, ND 58501&lt;br&gt;Phone: 701-555-1234&lt;br&gt;&lt;a href="#" &gt;Link&lt;a&gt; of some sort.', 16.507362,80.648814,],</t>
+  </si>
+  <si>
+    <t>Chandigarh</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>Punjab+Haryana</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>MadhyaPradesh</t>
+  </si>
+  <si>
+    <t>Orissa</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>UttarPradesh</t>
+  </si>
+  <si>
+    <t>Uttrakhand</t>
+  </si>
+  <si>
+    <t>WestBengal</t>
+  </si>
+  <si>
+    <t>Tamilnadu</t>
   </si>
 </sst>
 </file>
@@ -382,14 +415,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="6" max="6" width="133.28515625" bestFit="1" customWidth="1"/>
@@ -412,7 +446,7 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -429,7 +463,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -443,7 +477,7 @@
         <v>77.311027526855398</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -457,7 +491,7 @@
         <v>80.648814000000002</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -484,13 +518,128 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>21.234639000000001</v>
       </c>
       <c r="C7">
         <v>81.678414000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>23.035153999999999</v>
+      </c>
+      <c r="C8">
+        <v>72.570605999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>30.722836999999998</v>
+      </c>
+      <c r="C9">
+        <v>76.770302999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>12.989383</v>
+      </c>
+      <c r="C10">
+        <v>77.593424999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>18.925076000000001</v>
+      </c>
+      <c r="C11">
+        <v>72.823020999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>23.238225</v>
+      </c>
+      <c r="C12">
+        <v>77.426741000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>20.270900000000001</v>
+      </c>
+      <c r="C13">
+        <v>85.794178000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>26.901693999999999</v>
+      </c>
+      <c r="C14">
+        <v>75.793532999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>26.863001000000001</v>
+      </c>
+      <c r="C15">
+        <v>80.996634999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>30.332006</v>
+      </c>
+      <c r="C16">
+        <v>78.020948000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>22.606172000000001</v>
+      </c>
+      <c r="C17">
+        <v>88.403131000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Co-ordinates.xlsx
+++ b/Co-ordinates.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Location</t>
   </si>
@@ -51,18 +51,6 @@
     <t>Bihar</t>
   </si>
   <si>
-    <t>'&lt;b&gt;Name 1&lt;/b&gt;&lt;br&gt;Address Line 1&lt;br&gt;Bismarck, ND 58501&lt;br&gt;Phone: 701-555-1234&lt;br&gt;&lt;a href="#" &gt;Link&lt;a&gt; of some sort.', 46.8133, -100.7790, 4],</t>
-  </si>
-  <si>
-    <t>['&lt;b&gt;Name 1&lt;/b&gt;&lt;br&gt;Address Line 1&lt;br&gt;Bismarck, ND 58501&lt;br&gt;Phone: 701-555-1234&lt;br&gt;&lt;a href="#" &gt;Link&lt;a&gt; of some sort.', 21.71286, 72.705581,],</t>
-  </si>
-  <si>
-    <t>['&lt;b&gt;Name 2&lt;/b&gt;&lt;br&gt;Address Line 1&lt;br&gt;Bismarck, ND 58501&lt;br&gt;Phone: 701-555-1234&lt;br&gt;&lt;a href="#" &gt;Link&lt;a&gt; of some sort.', 28.590644,77.310489,],</t>
-  </si>
-  <si>
-    <t>['&lt;b&gt;Name 3&lt;/b&gt;&lt;br&gt;Address Line 1&lt;br&gt;Bismarck, ND 58501&lt;br&gt;Phone: 701-555-1234&lt;br&gt;&lt;a href="#" &gt;Link&lt;a&gt; of some sort.', 16.507362,80.648814,],</t>
-  </si>
-  <si>
     <t>Chandigarh</t>
   </si>
   <si>
@@ -97,6 +85,9 @@
   </si>
   <si>
     <t>Tamilnadu</t>
+  </si>
+  <si>
+    <t>L.marker([16.507362,80.648814], {icon: orangeIcon}).bindPopup("I am an orange leaf.").addTo(map);</t>
   </si>
 </sst>
 </file>
@@ -418,7 +409,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,7 +437,7 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -462,9 +453,11 @@
       <c r="D2">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E2" t="str">
+        <f>CONCATENATE("[",B2,",",C2,"]")</f>
+        <v>[21.71286,72.70898938]</v>
+      </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -476,9 +469,7 @@
       <c r="C3">
         <v>77.311027526855398</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -490,9 +481,7 @@
       <c r="C4">
         <v>80.648814000000002</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -518,7 +507,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>21.234639000000001</v>
@@ -529,7 +518,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>23.035153999999999</v>
@@ -540,7 +529,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>30.722836999999998</v>
@@ -551,7 +540,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>12.989383</v>
@@ -562,7 +551,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>18.925076000000001</v>
@@ -573,7 +562,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>23.238225</v>
@@ -584,7 +573,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>20.270900000000001</v>
@@ -595,7 +584,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>26.901693999999999</v>
@@ -606,7 +595,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>26.863001000000001</v>
@@ -617,7 +606,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>30.332006</v>
@@ -628,7 +617,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>22.606172000000001</v>
@@ -639,7 +628,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
